--- a/data/raw/congress.xlsx
+++ b/data/raw/congress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alicia Gunawan\Documents\UCSD\Winter 2022\DSC 180B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alicia Gunawan\Documents\UCSD\Winter 2022\DSC 180B\draft_code\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F62D13-88CE-4F67-B1F0-443EEF729F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98A787E-9C82-4A61-BBE4-AB678E8932FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11235" yWindow="1567" windowWidth="10725" windowHeight="13051" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Congress" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="1149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="1148">
   <si>
     <t>https://twitter.com/SenJohnHoeven</t>
   </si>
@@ -3346,9 +3346,6 @@
   </si>
   <si>
     <t>Collins, Susan M.</t>
-  </si>
-  <si>
-    <t>I</t>
   </si>
   <si>
     <t>Leahy, Patrick J.</t>
@@ -3836,8 +3833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="B471" sqref="B471"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="L531" sqref="L531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3849,36 +3846,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>448</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1138</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>1139</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E2" t="s">
         <v>1130</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -3895,7 +3892,7 @@
         <v>1103</v>
       </c>
       <c r="E3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -3912,7 +3909,7 @@
         <v>1103</v>
       </c>
       <c r="E4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -3929,7 +3926,7 @@
         <v>1103</v>
       </c>
       <c r="E5" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -3946,7 +3943,7 @@
         <v>1103</v>
       </c>
       <c r="E6" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -3963,7 +3960,7 @@
         <v>1103</v>
       </c>
       <c r="E7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -3980,7 +3977,7 @@
         <v>1103</v>
       </c>
       <c r="E8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -3997,7 +3994,7 @@
         <v>1103</v>
       </c>
       <c r="E9" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -4014,7 +4011,7 @@
         <v>1102</v>
       </c>
       <c r="E10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -4031,7 +4028,7 @@
         <v>1103</v>
       </c>
       <c r="E11" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -4048,7 +4045,7 @@
         <v>1103</v>
       </c>
       <c r="E12" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -4065,7 +4062,7 @@
         <v>1103</v>
       </c>
       <c r="E13" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -4082,7 +4079,7 @@
         <v>1103</v>
       </c>
       <c r="E14" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -4099,7 +4096,7 @@
         <v>1103</v>
       </c>
       <c r="E15" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -4116,7 +4113,7 @@
         <v>1103</v>
       </c>
       <c r="E16" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -4133,7 +4130,7 @@
         <v>1102</v>
       </c>
       <c r="E17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -4150,7 +4147,7 @@
         <v>1103</v>
       </c>
       <c r="E18" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -4167,7 +4164,7 @@
         <v>1102</v>
       </c>
       <c r="E19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -4184,7 +4181,7 @@
         <v>1102</v>
       </c>
       <c r="E20" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -4201,7 +4198,7 @@
         <v>1103</v>
       </c>
       <c r="E21" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -4218,7 +4215,7 @@
         <v>1102</v>
       </c>
       <c r="E22" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -4235,7 +4232,7 @@
         <v>1103</v>
       </c>
       <c r="E23" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -4252,7 +4249,7 @@
         <v>1102</v>
       </c>
       <c r="E24" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -4269,7 +4266,7 @@
         <v>1102</v>
       </c>
       <c r="E25" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -4286,7 +4283,7 @@
         <v>1102</v>
       </c>
       <c r="E26" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -4303,7 +4300,7 @@
         <v>1102</v>
       </c>
       <c r="E27" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -4320,7 +4317,7 @@
         <v>1102</v>
       </c>
       <c r="E28" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -4337,7 +4334,7 @@
         <v>1102</v>
       </c>
       <c r="E29" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -4354,7 +4351,7 @@
         <v>1103</v>
       </c>
       <c r="E30" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -4371,7 +4368,7 @@
         <v>1102</v>
       </c>
       <c r="E31" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -4388,7 +4385,7 @@
         <v>1102</v>
       </c>
       <c r="E32" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -4405,7 +4402,7 @@
         <v>1102</v>
       </c>
       <c r="E33" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -4422,7 +4419,7 @@
         <v>1102</v>
       </c>
       <c r="E34" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -4439,7 +4436,7 @@
         <v>1102</v>
       </c>
       <c r="E35" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -4456,7 +4453,7 @@
         <v>1102</v>
       </c>
       <c r="E36" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
@@ -4473,7 +4470,7 @@
         <v>1102</v>
       </c>
       <c r="E37" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -4490,7 +4487,7 @@
         <v>1103</v>
       </c>
       <c r="E38" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -4507,7 +4504,7 @@
         <v>1102</v>
       </c>
       <c r="E39" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
@@ -4524,7 +4521,7 @@
         <v>1102</v>
       </c>
       <c r="E40" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -4541,7 +4538,7 @@
         <v>1102</v>
       </c>
       <c r="E41" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
@@ -4558,7 +4555,7 @@
         <v>1103</v>
       </c>
       <c r="E42" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
@@ -4575,7 +4572,7 @@
         <v>1102</v>
       </c>
       <c r="E43" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
@@ -4592,7 +4589,7 @@
         <v>1102</v>
       </c>
       <c r="E44" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
@@ -4609,7 +4606,7 @@
         <v>1103</v>
       </c>
       <c r="E45" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
@@ -4626,7 +4623,7 @@
         <v>1103</v>
       </c>
       <c r="E46" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
@@ -4643,7 +4640,7 @@
         <v>1102</v>
       </c>
       <c r="E47" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
@@ -4660,7 +4657,7 @@
         <v>1102</v>
       </c>
       <c r="E48" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
@@ -4677,7 +4674,7 @@
         <v>1102</v>
       </c>
       <c r="E49" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
@@ -4694,7 +4691,7 @@
         <v>1102</v>
       </c>
       <c r="E50" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
@@ -4711,7 +4708,7 @@
         <v>1102</v>
       </c>
       <c r="E51" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
@@ -4728,7 +4725,7 @@
         <v>1102</v>
       </c>
       <c r="E52" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
@@ -4745,7 +4742,7 @@
         <v>1103</v>
       </c>
       <c r="E53" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
@@ -4762,7 +4759,7 @@
         <v>1103</v>
       </c>
       <c r="E54" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
@@ -4779,7 +4776,7 @@
         <v>1102</v>
       </c>
       <c r="E55" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
@@ -4796,7 +4793,7 @@
         <v>1102</v>
       </c>
       <c r="E56" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
@@ -4813,7 +4810,7 @@
         <v>1103</v>
       </c>
       <c r="E57" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
@@ -4830,7 +4827,7 @@
         <v>1103</v>
       </c>
       <c r="E58" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
@@ -4847,7 +4844,7 @@
         <v>1102</v>
       </c>
       <c r="E59" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
@@ -4864,7 +4861,7 @@
         <v>1102</v>
       </c>
       <c r="E60" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
@@ -4881,7 +4878,7 @@
         <v>1102</v>
       </c>
       <c r="E61" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
@@ -4898,7 +4895,7 @@
         <v>1102</v>
       </c>
       <c r="E62" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
@@ -4915,7 +4912,7 @@
         <v>1102</v>
       </c>
       <c r="E63" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
@@ -4932,7 +4929,7 @@
         <v>1102</v>
       </c>
       <c r="E64" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
@@ -4949,7 +4946,7 @@
         <v>1102</v>
       </c>
       <c r="E65" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
@@ -4966,7 +4963,7 @@
         <v>1102</v>
       </c>
       <c r="E66" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
@@ -4983,7 +4980,7 @@
         <v>1102</v>
       </c>
       <c r="E67" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
@@ -5000,7 +4997,7 @@
         <v>1102</v>
       </c>
       <c r="E68" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
@@ -5017,7 +5014,7 @@
         <v>1103</v>
       </c>
       <c r="E69" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
@@ -5034,7 +5031,7 @@
         <v>1102</v>
       </c>
       <c r="E70" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
@@ -5051,7 +5048,7 @@
         <v>1102</v>
       </c>
       <c r="E71" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
@@ -5068,7 +5065,7 @@
         <v>1102</v>
       </c>
       <c r="E72" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
@@ -5085,7 +5082,7 @@
         <v>1102</v>
       </c>
       <c r="E73" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
@@ -5102,7 +5099,7 @@
         <v>1103</v>
       </c>
       <c r="E74" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
@@ -5119,7 +5116,7 @@
         <v>1102</v>
       </c>
       <c r="E75" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
@@ -5136,7 +5133,7 @@
         <v>1102</v>
       </c>
       <c r="E76" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
@@ -5153,7 +5150,7 @@
         <v>1103</v>
       </c>
       <c r="E77" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
@@ -5170,7 +5167,7 @@
         <v>1103</v>
       </c>
       <c r="E78" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
@@ -5187,7 +5184,7 @@
         <v>1102</v>
       </c>
       <c r="E79" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
@@ -5204,7 +5201,7 @@
         <v>1102</v>
       </c>
       <c r="E80" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
@@ -5221,7 +5218,7 @@
         <v>1103</v>
       </c>
       <c r="E81" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
@@ -5238,7 +5235,7 @@
         <v>1102</v>
       </c>
       <c r="E82" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
@@ -5255,7 +5252,7 @@
         <v>1102</v>
       </c>
       <c r="E83" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
@@ -5272,7 +5269,7 @@
         <v>1102</v>
       </c>
       <c r="E84" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
@@ -5289,7 +5286,7 @@
         <v>1102</v>
       </c>
       <c r="E85" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
@@ -5306,7 +5303,7 @@
         <v>1102</v>
       </c>
       <c r="E86" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
@@ -5323,7 +5320,7 @@
         <v>1102</v>
       </c>
       <c r="E87" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
@@ -5340,7 +5337,7 @@
         <v>1102</v>
       </c>
       <c r="E88" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
@@ -5357,7 +5354,7 @@
         <v>1102</v>
       </c>
       <c r="E89" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
@@ -5374,7 +5371,7 @@
         <v>1102</v>
       </c>
       <c r="E90" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
@@ -5391,7 +5388,7 @@
         <v>1103</v>
       </c>
       <c r="E91" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
@@ -5408,7 +5405,7 @@
         <v>1103</v>
       </c>
       <c r="E92" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
@@ -5425,7 +5422,7 @@
         <v>1103</v>
       </c>
       <c r="E93" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
@@ -5442,7 +5439,7 @@
         <v>1102</v>
       </c>
       <c r="E94" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
@@ -5459,7 +5456,7 @@
         <v>1102</v>
       </c>
       <c r="E95" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
@@ -5476,7 +5473,7 @@
         <v>1102</v>
       </c>
       <c r="E96" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
@@ -5493,7 +5490,7 @@
         <v>1102</v>
       </c>
       <c r="E97" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
@@ -5510,7 +5507,7 @@
         <v>1103</v>
       </c>
       <c r="E98" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
@@ -5527,7 +5524,7 @@
         <v>1103</v>
       </c>
       <c r="E99" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
@@ -5544,7 +5541,7 @@
         <v>1103</v>
       </c>
       <c r="E100" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
@@ -5561,7 +5558,7 @@
         <v>1102</v>
       </c>
       <c r="E101" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
@@ -5578,7 +5575,7 @@
         <v>1103</v>
       </c>
       <c r="E102" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
@@ -5595,7 +5592,7 @@
         <v>1103</v>
       </c>
       <c r="E103" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
@@ -5612,15 +5609,15 @@
         <v>1103</v>
       </c>
       <c r="E104" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>1141</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>1142</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>511</v>
@@ -5629,7 +5626,7 @@
         <v>1102</v>
       </c>
       <c r="E105" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
@@ -5646,7 +5643,7 @@
         <v>1102</v>
       </c>
       <c r="E106" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
@@ -5663,7 +5660,7 @@
         <v>1103</v>
       </c>
       <c r="E107" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
@@ -5680,7 +5677,7 @@
         <v>1102</v>
       </c>
       <c r="E108" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
@@ -5697,7 +5694,7 @@
         <v>1103</v>
       </c>
       <c r="E109" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
@@ -5714,7 +5711,7 @@
         <v>1103</v>
       </c>
       <c r="E110" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
@@ -5731,7 +5728,7 @@
         <v>1103</v>
       </c>
       <c r="E111" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
@@ -5748,7 +5745,7 @@
         <v>1102</v>
       </c>
       <c r="E112" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
@@ -5765,7 +5762,7 @@
         <v>1103</v>
       </c>
       <c r="E113" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
@@ -5773,7 +5770,7 @@
         <v>1034</v>
       </c>
       <c r="B114" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>511</v>
@@ -5782,7 +5779,7 @@
         <v>1103</v>
       </c>
       <c r="E114" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
@@ -5799,7 +5796,7 @@
         <v>1103</v>
       </c>
       <c r="E115" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
@@ -5816,7 +5813,7 @@
         <v>1103</v>
       </c>
       <c r="E116" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
@@ -5833,7 +5830,7 @@
         <v>1102</v>
       </c>
       <c r="E117" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
@@ -5850,7 +5847,7 @@
         <v>1103</v>
       </c>
       <c r="E118" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
@@ -5867,7 +5864,7 @@
         <v>1102</v>
       </c>
       <c r="E119" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
@@ -5884,7 +5881,7 @@
         <v>1102</v>
       </c>
       <c r="E120" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
@@ -5901,7 +5898,7 @@
         <v>1103</v>
       </c>
       <c r="E121" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
@@ -5909,7 +5906,7 @@
         <v>901</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>487</v>
@@ -5918,7 +5915,7 @@
         <v>1103</v>
       </c>
       <c r="E122" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
@@ -5935,7 +5932,7 @@
         <v>1103</v>
       </c>
       <c r="E123" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
@@ -5952,7 +5949,7 @@
         <v>1103</v>
       </c>
       <c r="E124" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
@@ -5969,7 +5966,7 @@
         <v>1103</v>
       </c>
       <c r="E125" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
@@ -5986,7 +5983,7 @@
         <v>1102</v>
       </c>
       <c r="E126" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
@@ -6003,7 +6000,7 @@
         <v>1103</v>
       </c>
       <c r="E127" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
@@ -6020,7 +6017,7 @@
         <v>1102</v>
       </c>
       <c r="E128" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
@@ -6037,7 +6034,7 @@
         <v>1103</v>
       </c>
       <c r="E129" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
@@ -6054,7 +6051,7 @@
         <v>1102</v>
       </c>
       <c r="E130" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
@@ -6071,7 +6068,7 @@
         <v>1102</v>
       </c>
       <c r="E131" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
@@ -6088,7 +6085,7 @@
         <v>1102</v>
       </c>
       <c r="E132" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
@@ -6105,7 +6102,7 @@
         <v>1102</v>
       </c>
       <c r="E133" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
@@ -6113,7 +6110,7 @@
         <v>949</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>502</v>
@@ -6122,7 +6119,7 @@
         <v>1102</v>
       </c>
       <c r="E134" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
@@ -6139,7 +6136,7 @@
         <v>1102</v>
       </c>
       <c r="E135" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
@@ -6156,7 +6153,7 @@
         <v>1103</v>
       </c>
       <c r="E136" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
@@ -6173,7 +6170,7 @@
         <v>1103</v>
       </c>
       <c r="E137" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
@@ -6190,7 +6187,7 @@
         <v>1103</v>
       </c>
       <c r="E138" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
@@ -6207,7 +6204,7 @@
         <v>1103</v>
       </c>
       <c r="E139" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
@@ -6224,7 +6221,7 @@
         <v>1103</v>
       </c>
       <c r="E140" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
@@ -6241,7 +6238,7 @@
         <v>1103</v>
       </c>
       <c r="E141" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
@@ -6258,7 +6255,7 @@
         <v>1102</v>
       </c>
       <c r="E142" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
@@ -6275,7 +6272,7 @@
         <v>1102</v>
       </c>
       <c r="E143" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
@@ -6292,7 +6289,7 @@
         <v>1102</v>
       </c>
       <c r="E144" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
@@ -6309,7 +6306,7 @@
         <v>1103</v>
       </c>
       <c r="E145" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
@@ -6326,7 +6323,7 @@
         <v>1102</v>
       </c>
       <c r="E146" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
@@ -6343,7 +6340,7 @@
         <v>1102</v>
       </c>
       <c r="E147" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
@@ -6360,7 +6357,7 @@
         <v>1102</v>
       </c>
       <c r="E148" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
@@ -6377,7 +6374,7 @@
         <v>1103</v>
       </c>
       <c r="E149" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
@@ -6394,7 +6391,7 @@
         <v>1102</v>
       </c>
       <c r="E150" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
@@ -6411,7 +6408,7 @@
         <v>1103</v>
       </c>
       <c r="E151" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
@@ -6428,7 +6425,7 @@
         <v>1102</v>
       </c>
       <c r="E152" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
@@ -6445,7 +6442,7 @@
         <v>1102</v>
       </c>
       <c r="E153" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
@@ -6462,7 +6459,7 @@
         <v>1102</v>
       </c>
       <c r="E154" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
@@ -6479,7 +6476,7 @@
         <v>1102</v>
       </c>
       <c r="E155" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
@@ -6496,7 +6493,7 @@
         <v>1102</v>
       </c>
       <c r="E156" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
@@ -6513,7 +6510,7 @@
         <v>1102</v>
       </c>
       <c r="E157" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
@@ -6530,7 +6527,7 @@
         <v>1103</v>
       </c>
       <c r="E158" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
@@ -6547,7 +6544,7 @@
         <v>1103</v>
       </c>
       <c r="E159" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
@@ -6564,7 +6561,7 @@
         <v>1103</v>
       </c>
       <c r="E160" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
@@ -6581,7 +6578,7 @@
         <v>1102</v>
       </c>
       <c r="E161" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
@@ -6598,7 +6595,7 @@
         <v>1103</v>
       </c>
       <c r="E162" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
@@ -6615,7 +6612,7 @@
         <v>1102</v>
       </c>
       <c r="E163" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
@@ -6632,7 +6629,7 @@
         <v>1103</v>
       </c>
       <c r="E164" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
@@ -6649,7 +6646,7 @@
         <v>1103</v>
       </c>
       <c r="E165" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
@@ -6666,7 +6663,7 @@
         <v>1103</v>
       </c>
       <c r="E166" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
@@ -6683,7 +6680,7 @@
         <v>1102</v>
       </c>
       <c r="E167" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
@@ -6700,7 +6697,7 @@
         <v>1103</v>
       </c>
       <c r="E168" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
@@ -6717,7 +6714,7 @@
         <v>1103</v>
       </c>
       <c r="E169" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
@@ -6734,7 +6731,7 @@
         <v>1103</v>
       </c>
       <c r="E170" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.45">
@@ -6751,7 +6748,7 @@
         <v>1103</v>
       </c>
       <c r="E171" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
@@ -6768,7 +6765,7 @@
         <v>1103</v>
       </c>
       <c r="E172" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.45">
@@ -6785,7 +6782,7 @@
         <v>1103</v>
       </c>
       <c r="E173" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.45">
@@ -6802,7 +6799,7 @@
         <v>1103</v>
       </c>
       <c r="E174" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
@@ -6819,7 +6816,7 @@
         <v>1103</v>
       </c>
       <c r="E175" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
@@ -6836,15 +6833,15 @@
         <v>1102</v>
       </c>
       <c r="E176" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" s="7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C177" s="8" t="s">
         <v>455</v>
@@ -6853,7 +6850,7 @@
         <v>1102</v>
       </c>
       <c r="E177" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.45">
@@ -6870,7 +6867,7 @@
         <v>1103</v>
       </c>
       <c r="E178" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.45">
@@ -6887,7 +6884,7 @@
         <v>1103</v>
       </c>
       <c r="E179" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.45">
@@ -6904,15 +6901,15 @@
         <v>1103</v>
       </c>
       <c r="E180" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" s="7" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C181" s="8" t="s">
         <v>455</v>
@@ -6921,7 +6918,7 @@
         <v>1103</v>
       </c>
       <c r="E181" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.45">
@@ -6938,7 +6935,7 @@
         <v>1103</v>
       </c>
       <c r="E182" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.45">
@@ -6955,7 +6952,7 @@
         <v>1102</v>
       </c>
       <c r="E183" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
@@ -6972,7 +6969,7 @@
         <v>1102</v>
       </c>
       <c r="E184" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.45">
@@ -6989,7 +6986,7 @@
         <v>1102</v>
       </c>
       <c r="E185" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.45">
@@ -7006,7 +7003,7 @@
         <v>1102</v>
       </c>
       <c r="E186" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.45">
@@ -7023,7 +7020,7 @@
         <v>1102</v>
       </c>
       <c r="E187" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.45">
@@ -7031,7 +7028,7 @@
         <v>758</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>532</v>
@@ -7040,7 +7037,7 @@
         <v>1102</v>
       </c>
       <c r="E188" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.45">
@@ -7057,7 +7054,7 @@
         <v>1102</v>
       </c>
       <c r="E189" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.45">
@@ -7074,7 +7071,7 @@
         <v>1102</v>
       </c>
       <c r="E190" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.45">
@@ -7091,7 +7088,7 @@
         <v>1102</v>
       </c>
       <c r="E191" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.45">
@@ -7108,7 +7105,7 @@
         <v>1102</v>
       </c>
       <c r="E192" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.45">
@@ -7125,7 +7122,7 @@
         <v>1103</v>
       </c>
       <c r="E193" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.45">
@@ -7142,7 +7139,7 @@
         <v>1102</v>
       </c>
       <c r="E194" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
@@ -7159,7 +7156,7 @@
         <v>1102</v>
       </c>
       <c r="E195" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
@@ -7176,7 +7173,7 @@
         <v>1102</v>
       </c>
       <c r="E196" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
@@ -7193,7 +7190,7 @@
         <v>1102</v>
       </c>
       <c r="E197" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.45">
@@ -7210,7 +7207,7 @@
         <v>1102</v>
       </c>
       <c r="E198" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.45">
@@ -7227,7 +7224,7 @@
         <v>1102</v>
       </c>
       <c r="E199" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.45">
@@ -7244,7 +7241,7 @@
         <v>1102</v>
       </c>
       <c r="E200" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.45">
@@ -7261,7 +7258,7 @@
         <v>1102</v>
       </c>
       <c r="E201" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.45">
@@ -7278,7 +7275,7 @@
         <v>1103</v>
       </c>
       <c r="E202" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.45">
@@ -7295,7 +7292,7 @@
         <v>1102</v>
       </c>
       <c r="E203" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.45">
@@ -7312,7 +7309,7 @@
         <v>1103</v>
       </c>
       <c r="E204" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.45">
@@ -7329,7 +7326,7 @@
         <v>1102</v>
       </c>
       <c r="E205" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.45">
@@ -7346,7 +7343,7 @@
         <v>1102</v>
       </c>
       <c r="E206" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.45">
@@ -7363,7 +7360,7 @@
         <v>1102</v>
       </c>
       <c r="E207" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.45">
@@ -7380,7 +7377,7 @@
         <v>1103</v>
       </c>
       <c r="E208" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
@@ -7397,7 +7394,7 @@
         <v>1103</v>
       </c>
       <c r="E209" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
@@ -7414,7 +7411,7 @@
         <v>1103</v>
       </c>
       <c r="E210" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
@@ -7431,7 +7428,7 @@
         <v>1102</v>
       </c>
       <c r="E211" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
@@ -7448,7 +7445,7 @@
         <v>1102</v>
       </c>
       <c r="E212" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
@@ -7465,7 +7462,7 @@
         <v>1102</v>
       </c>
       <c r="E213" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
@@ -7482,7 +7479,7 @@
         <v>1103</v>
       </c>
       <c r="E214" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
@@ -7499,7 +7496,7 @@
         <v>1103</v>
       </c>
       <c r="E215" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
@@ -7516,7 +7513,7 @@
         <v>1102</v>
       </c>
       <c r="E216" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
@@ -7533,7 +7530,7 @@
         <v>1103</v>
       </c>
       <c r="E217" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.45">
@@ -7550,7 +7547,7 @@
         <v>1103</v>
       </c>
       <c r="E218" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.45">
@@ -7567,7 +7564,7 @@
         <v>1103</v>
       </c>
       <c r="E219" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
@@ -7584,7 +7581,7 @@
         <v>1102</v>
       </c>
       <c r="E220" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
@@ -7601,7 +7598,7 @@
         <v>1102</v>
       </c>
       <c r="E221" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
@@ -7618,7 +7615,7 @@
         <v>1102</v>
       </c>
       <c r="E222" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
@@ -7635,7 +7632,7 @@
         <v>1103</v>
       </c>
       <c r="E223" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
@@ -7652,7 +7649,7 @@
         <v>1102</v>
       </c>
       <c r="E224" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.45">
@@ -7669,7 +7666,7 @@
         <v>1102</v>
       </c>
       <c r="E225" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.45">
@@ -7686,7 +7683,7 @@
         <v>1103</v>
       </c>
       <c r="E226" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.45">
@@ -7703,7 +7700,7 @@
         <v>1103</v>
       </c>
       <c r="E227" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.45">
@@ -7720,7 +7717,7 @@
         <v>1103</v>
       </c>
       <c r="E228" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.45">
@@ -7737,7 +7734,7 @@
         <v>1103</v>
       </c>
       <c r="E229" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.45">
@@ -7754,7 +7751,7 @@
         <v>1103</v>
       </c>
       <c r="E230" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.45">
@@ -7771,7 +7768,7 @@
         <v>1103</v>
       </c>
       <c r="E231" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.45">
@@ -7788,7 +7785,7 @@
         <v>1102</v>
       </c>
       <c r="E232" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.45">
@@ -7805,7 +7802,7 @@
         <v>1103</v>
       </c>
       <c r="E233" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.45">
@@ -7822,7 +7819,7 @@
         <v>1103</v>
       </c>
       <c r="E234" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.45">
@@ -7839,12 +7836,12 @@
         <v>1103</v>
       </c>
       <c r="E235" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B236" t="s">
         <v>416</v>
@@ -7856,7 +7853,7 @@
         <v>1102</v>
       </c>
       <c r="E236" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.45">
@@ -7873,7 +7870,7 @@
         <v>1103</v>
       </c>
       <c r="E237" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.45">
@@ -7890,7 +7887,7 @@
         <v>1102</v>
       </c>
       <c r="E238" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.45">
@@ -7907,7 +7904,7 @@
         <v>1103</v>
       </c>
       <c r="E239" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.45">
@@ -7924,7 +7921,7 @@
         <v>1103</v>
       </c>
       <c r="E240" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.45">
@@ -7941,7 +7938,7 @@
         <v>1102</v>
       </c>
       <c r="E241" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.45">
@@ -7958,7 +7955,7 @@
         <v>1103</v>
       </c>
       <c r="E242" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.45">
@@ -7975,7 +7972,7 @@
         <v>1103</v>
       </c>
       <c r="E243" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.45">
@@ -7992,7 +7989,7 @@
         <v>1103</v>
       </c>
       <c r="E244" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.45">
@@ -8009,7 +8006,7 @@
         <v>1102</v>
       </c>
       <c r="E245" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.45">
@@ -8026,7 +8023,7 @@
         <v>1103</v>
       </c>
       <c r="E246" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.45">
@@ -8043,7 +8040,7 @@
         <v>1103</v>
       </c>
       <c r="E247" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.45">
@@ -8060,7 +8057,7 @@
         <v>1102</v>
       </c>
       <c r="E248" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.45">
@@ -8077,7 +8074,7 @@
         <v>1102</v>
       </c>
       <c r="E249" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.45">
@@ -8094,7 +8091,7 @@
         <v>1103</v>
       </c>
       <c r="E250" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.45">
@@ -8111,7 +8108,7 @@
         <v>1103</v>
       </c>
       <c r="E251" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.45">
@@ -8128,7 +8125,7 @@
         <v>1103</v>
       </c>
       <c r="E252" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.45">
@@ -8145,7 +8142,7 @@
         <v>1103</v>
       </c>
       <c r="E253" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.45">
@@ -8162,7 +8159,7 @@
         <v>1103</v>
       </c>
       <c r="E254" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.45">
@@ -8179,7 +8176,7 @@
         <v>1102</v>
       </c>
       <c r="E255" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.45">
@@ -8196,7 +8193,7 @@
         <v>1102</v>
       </c>
       <c r="E256" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.45">
@@ -8213,7 +8210,7 @@
         <v>1102</v>
       </c>
       <c r="E257" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.45">
@@ -8230,7 +8227,7 @@
         <v>1102</v>
       </c>
       <c r="E258" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.45">
@@ -8247,7 +8244,7 @@
         <v>1102</v>
       </c>
       <c r="E259" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.45">
@@ -8264,7 +8261,7 @@
         <v>1102</v>
       </c>
       <c r="E260" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.45">
@@ -8281,7 +8278,7 @@
         <v>1102</v>
       </c>
       <c r="E261" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.45">
@@ -8298,7 +8295,7 @@
         <v>1102</v>
       </c>
       <c r="E262" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.45">
@@ -8315,7 +8312,7 @@
         <v>1102</v>
       </c>
       <c r="E263" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.45">
@@ -8332,7 +8329,7 @@
         <v>1102</v>
       </c>
       <c r="E264" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.45">
@@ -8349,7 +8346,7 @@
         <v>1102</v>
       </c>
       <c r="E265" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.45">
@@ -8366,7 +8363,7 @@
         <v>1102</v>
       </c>
       <c r="E266" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.45">
@@ -8383,7 +8380,7 @@
         <v>1103</v>
       </c>
       <c r="E267" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.45">
@@ -8400,15 +8397,15 @@
         <v>1102</v>
       </c>
       <c r="E268" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269" s="7" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>451</v>
@@ -8417,7 +8414,7 @@
         <v>1102</v>
       </c>
       <c r="E269" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.45">
@@ -8434,7 +8431,7 @@
         <v>1103</v>
       </c>
       <c r="E270" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.45">
@@ -8451,7 +8448,7 @@
         <v>1102</v>
       </c>
       <c r="E271" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.45">
@@ -8468,7 +8465,7 @@
         <v>1102</v>
       </c>
       <c r="E272" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.45">
@@ -8485,7 +8482,7 @@
         <v>1102</v>
       </c>
       <c r="E273" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.45">
@@ -8502,7 +8499,7 @@
         <v>1102</v>
       </c>
       <c r="E274" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.45">
@@ -8519,7 +8516,7 @@
         <v>1102</v>
       </c>
       <c r="E275" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.45">
@@ -8536,7 +8533,7 @@
         <v>1102</v>
       </c>
       <c r="E276" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.45">
@@ -8553,7 +8550,7 @@
         <v>1102</v>
       </c>
       <c r="E277" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.45">
@@ -8570,7 +8567,7 @@
         <v>1103</v>
       </c>
       <c r="E278" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.45">
@@ -8587,7 +8584,7 @@
         <v>1102</v>
       </c>
       <c r="E279" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.45">
@@ -8604,7 +8601,7 @@
         <v>1103</v>
       </c>
       <c r="E280" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.45">
@@ -8621,7 +8618,7 @@
         <v>1102</v>
       </c>
       <c r="E281" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.45">
@@ -8638,7 +8635,7 @@
         <v>1102</v>
       </c>
       <c r="E282" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.45">
@@ -8655,7 +8652,7 @@
         <v>1103</v>
       </c>
       <c r="E283" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.45">
@@ -8672,7 +8669,7 @@
         <v>1103</v>
       </c>
       <c r="E284" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.45">
@@ -8689,7 +8686,7 @@
         <v>1102</v>
       </c>
       <c r="E285" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.45">
@@ -8706,7 +8703,7 @@
         <v>1102</v>
       </c>
       <c r="E286" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.45">
@@ -8723,7 +8720,7 @@
         <v>1102</v>
       </c>
       <c r="E287" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.45">
@@ -8740,12 +8737,12 @@
         <v>1102</v>
       </c>
       <c r="E288" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B289" t="s">
         <v>111</v>
@@ -8757,7 +8754,7 @@
         <v>1102</v>
       </c>
       <c r="E289" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.45">
@@ -8774,7 +8771,7 @@
         <v>1102</v>
       </c>
       <c r="E290" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.45">
@@ -8791,7 +8788,7 @@
         <v>1102</v>
       </c>
       <c r="E291" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.45">
@@ -8799,7 +8796,7 @@
         <v>760</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>494</v>
@@ -8808,7 +8805,7 @@
         <v>1103</v>
       </c>
       <c r="E292" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.45">
@@ -8825,7 +8822,7 @@
         <v>1102</v>
       </c>
       <c r="E293" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.45">
@@ -8842,7 +8839,7 @@
         <v>1103</v>
       </c>
       <c r="E294" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.45">
@@ -8859,15 +8856,15 @@
         <v>1102</v>
       </c>
       <c r="E295" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A296" s="7" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C296" s="8" t="s">
         <v>494</v>
@@ -8876,7 +8873,7 @@
         <v>1103</v>
       </c>
       <c r="E296" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.45">
@@ -8893,7 +8890,7 @@
         <v>1102</v>
       </c>
       <c r="E297" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.45">
@@ -8910,7 +8907,7 @@
         <v>1102</v>
       </c>
       <c r="E298" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.45">
@@ -8927,7 +8924,7 @@
         <v>1102</v>
       </c>
       <c r="E299" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.45">
@@ -8944,7 +8941,7 @@
         <v>1103</v>
       </c>
       <c r="E300" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.45">
@@ -8961,7 +8958,7 @@
         <v>1103</v>
       </c>
       <c r="E301" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.45">
@@ -8978,15 +8975,15 @@
         <v>1102</v>
       </c>
       <c r="E302" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A303" s="7" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C303" s="8" t="s">
         <v>485</v>
@@ -8995,15 +8992,15 @@
         <v>1102</v>
       </c>
       <c r="E303" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A304" s="7" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C304" s="8" t="s">
         <v>485</v>
@@ -9012,7 +9009,7 @@
         <v>1103</v>
       </c>
       <c r="E304" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.45">
@@ -9029,7 +9026,7 @@
         <v>1103</v>
       </c>
       <c r="E305" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.45">
@@ -9046,7 +9043,7 @@
         <v>1103</v>
       </c>
       <c r="E306" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.45">
@@ -9063,7 +9060,7 @@
         <v>1103</v>
       </c>
       <c r="E307" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.45">
@@ -9080,7 +9077,7 @@
         <v>1103</v>
       </c>
       <c r="E308" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.45">
@@ -9097,7 +9094,7 @@
         <v>1103</v>
       </c>
       <c r="E309" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.45">
@@ -9114,7 +9111,7 @@
         <v>1103</v>
       </c>
       <c r="E310" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.45">
@@ -9131,7 +9128,7 @@
         <v>1103</v>
       </c>
       <c r="E311" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.45">
@@ -9148,7 +9145,7 @@
         <v>1102</v>
       </c>
       <c r="E312" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.45">
@@ -9165,7 +9162,7 @@
         <v>1103</v>
       </c>
       <c r="E313" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.45">
@@ -9182,7 +9179,7 @@
         <v>1102</v>
       </c>
       <c r="E314" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.45">
@@ -9199,7 +9196,7 @@
         <v>1103</v>
       </c>
       <c r="E315" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.45">
@@ -9216,7 +9213,7 @@
         <v>1103</v>
       </c>
       <c r="E316" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.45">
@@ -9233,7 +9230,7 @@
         <v>1103</v>
       </c>
       <c r="E317" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.45">
@@ -9250,7 +9247,7 @@
         <v>1103</v>
       </c>
       <c r="E318" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.45">
@@ -9267,7 +9264,7 @@
         <v>1103</v>
       </c>
       <c r="E319" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.45">
@@ -9284,7 +9281,7 @@
         <v>1103</v>
       </c>
       <c r="E320" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.45">
@@ -9301,7 +9298,7 @@
         <v>1103</v>
       </c>
       <c r="E321" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.45">
@@ -9318,7 +9315,7 @@
         <v>1103</v>
       </c>
       <c r="E322" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.45">
@@ -9335,7 +9332,7 @@
         <v>1102</v>
       </c>
       <c r="E323" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.45">
@@ -9352,7 +9349,7 @@
         <v>1102</v>
       </c>
       <c r="E324" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.45">
@@ -9369,7 +9366,7 @@
         <v>1102</v>
       </c>
       <c r="E325" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.45">
@@ -9386,7 +9383,7 @@
         <v>1102</v>
       </c>
       <c r="E326" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.45">
@@ -9403,7 +9400,7 @@
         <v>1102</v>
       </c>
       <c r="E327" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.45">
@@ -9420,7 +9417,7 @@
         <v>1102</v>
       </c>
       <c r="E328" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.45">
@@ -9437,7 +9434,7 @@
         <v>1102</v>
       </c>
       <c r="E329" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.45">
@@ -9454,7 +9451,7 @@
         <v>1102</v>
       </c>
       <c r="E330" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.45">
@@ -9471,7 +9468,7 @@
         <v>1102</v>
       </c>
       <c r="E331" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.45">
@@ -9488,7 +9485,7 @@
         <v>1103</v>
       </c>
       <c r="E332" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.45">
@@ -9505,7 +9502,7 @@
         <v>1102</v>
       </c>
       <c r="E333" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.45">
@@ -9522,7 +9519,7 @@
         <v>1103</v>
       </c>
       <c r="E334" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.45">
@@ -9539,7 +9536,7 @@
         <v>1103</v>
       </c>
       <c r="E335" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.45">
@@ -9556,7 +9553,7 @@
         <v>1103</v>
       </c>
       <c r="E336" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.45">
@@ -9573,7 +9570,7 @@
         <v>1102</v>
       </c>
       <c r="E337" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.45">
@@ -9590,7 +9587,7 @@
         <v>1103</v>
       </c>
       <c r="E338" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.45">
@@ -9607,7 +9604,7 @@
         <v>1103</v>
       </c>
       <c r="E339" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.45">
@@ -9624,7 +9621,7 @@
         <v>1103</v>
       </c>
       <c r="E340" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.45">
@@ -9641,7 +9638,7 @@
         <v>1102</v>
       </c>
       <c r="E341" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.45">
@@ -9658,7 +9655,7 @@
         <v>1103</v>
       </c>
       <c r="E342" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.45">
@@ -9675,7 +9672,7 @@
         <v>1103</v>
       </c>
       <c r="E343" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.45">
@@ -9692,7 +9689,7 @@
         <v>1102</v>
       </c>
       <c r="E344" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.45">
@@ -9709,7 +9706,7 @@
         <v>1103</v>
       </c>
       <c r="E345" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.45">
@@ -9717,7 +9714,7 @@
         <v>736</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>557</v>
@@ -9726,7 +9723,7 @@
         <v>1102</v>
       </c>
       <c r="E346" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.45">
@@ -9743,7 +9740,7 @@
         <v>1102</v>
       </c>
       <c r="E347" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.45">
@@ -9760,7 +9757,7 @@
         <v>1102</v>
       </c>
       <c r="E348" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.45">
@@ -9777,7 +9774,7 @@
         <v>1103</v>
       </c>
       <c r="E349" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.45">
@@ -9794,7 +9791,7 @@
         <v>1103</v>
       </c>
       <c r="E350" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.45">
@@ -9811,7 +9808,7 @@
         <v>1103</v>
       </c>
       <c r="E351" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.45">
@@ -9828,7 +9825,7 @@
         <v>1103</v>
       </c>
       <c r="E352" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.45">
@@ -9845,7 +9842,7 @@
         <v>1103</v>
       </c>
       <c r="E353" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.45">
@@ -9862,7 +9859,7 @@
         <v>1103</v>
       </c>
       <c r="E354" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.45">
@@ -9879,7 +9876,7 @@
         <v>1103</v>
       </c>
       <c r="E355" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.45">
@@ -9896,7 +9893,7 @@
         <v>1103</v>
       </c>
       <c r="E356" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.45">
@@ -9913,7 +9910,7 @@
         <v>1102</v>
       </c>
       <c r="E357" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.45">
@@ -9930,7 +9927,7 @@
         <v>1102</v>
       </c>
       <c r="E358" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.45">
@@ -9947,7 +9944,7 @@
         <v>1103</v>
       </c>
       <c r="E359" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.45">
@@ -9964,7 +9961,7 @@
         <v>1103</v>
       </c>
       <c r="E360" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.45">
@@ -9981,7 +9978,7 @@
         <v>1103</v>
       </c>
       <c r="E361" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.45">
@@ -9998,7 +9995,7 @@
         <v>1103</v>
       </c>
       <c r="E362" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.45">
@@ -10015,7 +10012,7 @@
         <v>1103</v>
       </c>
       <c r="E363" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.45">
@@ -10032,7 +10029,7 @@
         <v>1103</v>
       </c>
       <c r="E364" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.45">
@@ -10049,7 +10046,7 @@
         <v>1102</v>
       </c>
       <c r="E365" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.45">
@@ -10066,7 +10063,7 @@
         <v>1103</v>
       </c>
       <c r="E366" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.45">
@@ -10083,7 +10080,7 @@
         <v>1103</v>
       </c>
       <c r="E367" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.45">
@@ -10100,7 +10097,7 @@
         <v>1103</v>
       </c>
       <c r="E368" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.45">
@@ -10117,7 +10114,7 @@
         <v>1103</v>
       </c>
       <c r="E369" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.45">
@@ -10134,7 +10131,7 @@
         <v>1103</v>
       </c>
       <c r="E370" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.45">
@@ -10151,7 +10148,7 @@
         <v>1102</v>
       </c>
       <c r="E371" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.45">
@@ -10168,7 +10165,7 @@
         <v>1103</v>
       </c>
       <c r="E372" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.45">
@@ -10185,7 +10182,7 @@
         <v>1103</v>
       </c>
       <c r="E373" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.45">
@@ -10202,7 +10199,7 @@
         <v>1102</v>
       </c>
       <c r="E374" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.45">
@@ -10219,15 +10216,15 @@
         <v>1102</v>
       </c>
       <c r="E375" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A376" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C376" s="8" t="s">
         <v>475</v>
@@ -10236,7 +10233,7 @@
         <v>1103</v>
       </c>
       <c r="E376" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.45">
@@ -10253,7 +10250,7 @@
         <v>1102</v>
       </c>
       <c r="E377" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.45">
@@ -10270,7 +10267,7 @@
         <v>1103</v>
       </c>
       <c r="E378" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.45">
@@ -10287,7 +10284,7 @@
         <v>1102</v>
       </c>
       <c r="E379" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.45">
@@ -10304,7 +10301,7 @@
         <v>1102</v>
       </c>
       <c r="E380" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.45">
@@ -10321,7 +10318,7 @@
         <v>1103</v>
       </c>
       <c r="E381" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.45">
@@ -10338,7 +10335,7 @@
         <v>1103</v>
       </c>
       <c r="E382" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.45">
@@ -10355,7 +10352,7 @@
         <v>1102</v>
       </c>
       <c r="E383" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.45">
@@ -10363,7 +10360,7 @@
         <v>928</v>
       </c>
       <c r="B384" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>475</v>
@@ -10372,7 +10369,7 @@
         <v>1103</v>
       </c>
       <c r="E384" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.45">
@@ -10389,7 +10386,7 @@
         <v>1103</v>
       </c>
       <c r="E385" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.45">
@@ -10406,7 +10403,7 @@
         <v>1102</v>
       </c>
       <c r="E386" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.45">
@@ -10423,7 +10420,7 @@
         <v>1102</v>
       </c>
       <c r="E387" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.45">
@@ -10440,7 +10437,7 @@
         <v>1103</v>
       </c>
       <c r="E388" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.45">
@@ -10457,7 +10454,7 @@
         <v>1102</v>
       </c>
       <c r="E389" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.45">
@@ -10474,7 +10471,7 @@
         <v>1103</v>
       </c>
       <c r="E390" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.45">
@@ -10491,7 +10488,7 @@
         <v>1103</v>
       </c>
       <c r="E391" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.45">
@@ -10508,7 +10505,7 @@
         <v>1103</v>
       </c>
       <c r="E392" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.45">
@@ -10525,7 +10522,7 @@
         <v>1103</v>
       </c>
       <c r="E393" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.45">
@@ -10542,7 +10539,7 @@
         <v>1103</v>
       </c>
       <c r="E394" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.45">
@@ -10559,7 +10556,7 @@
         <v>1103</v>
       </c>
       <c r="E395" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.45">
@@ -10576,7 +10573,7 @@
         <v>1103</v>
       </c>
       <c r="E396" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.45">
@@ -10593,7 +10590,7 @@
         <v>1103</v>
       </c>
       <c r="E397" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.45">
@@ -10610,7 +10607,7 @@
         <v>1102</v>
       </c>
       <c r="E398" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.45">
@@ -10627,7 +10624,7 @@
         <v>1103</v>
       </c>
       <c r="E399" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.45">
@@ -10644,7 +10641,7 @@
         <v>1103</v>
       </c>
       <c r="E400" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.45">
@@ -10661,7 +10658,7 @@
         <v>1103</v>
       </c>
       <c r="E401" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.45">
@@ -10678,7 +10675,7 @@
         <v>1103</v>
       </c>
       <c r="E402" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.45">
@@ -10695,7 +10692,7 @@
         <v>1103</v>
       </c>
       <c r="E403" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.45">
@@ -10712,7 +10709,7 @@
         <v>1103</v>
       </c>
       <c r="E404" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.45">
@@ -10729,7 +10726,7 @@
         <v>1102</v>
       </c>
       <c r="E405" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.45">
@@ -10746,7 +10743,7 @@
         <v>1103</v>
       </c>
       <c r="E406" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.45">
@@ -10763,7 +10760,7 @@
         <v>1102</v>
       </c>
       <c r="E407" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.45">
@@ -10780,7 +10777,7 @@
         <v>1103</v>
       </c>
       <c r="E408" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.45">
@@ -10797,7 +10794,7 @@
         <v>1103</v>
       </c>
       <c r="E409" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.45">
@@ -10814,7 +10811,7 @@
         <v>1102</v>
       </c>
       <c r="E410" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.45">
@@ -10831,7 +10828,7 @@
         <v>1102</v>
       </c>
       <c r="E411" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.45">
@@ -10848,7 +10845,7 @@
         <v>1102</v>
       </c>
       <c r="E412" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.45">
@@ -10865,7 +10862,7 @@
         <v>1102</v>
       </c>
       <c r="E413" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.45">
@@ -10882,7 +10879,7 @@
         <v>1102</v>
       </c>
       <c r="E414" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.45">
@@ -10899,7 +10896,7 @@
         <v>1103</v>
       </c>
       <c r="E415" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.45">
@@ -10916,7 +10913,7 @@
         <v>1102</v>
       </c>
       <c r="E416" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.45">
@@ -10933,7 +10930,7 @@
         <v>1102</v>
       </c>
       <c r="E417" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.45">
@@ -10950,7 +10947,7 @@
         <v>1102</v>
       </c>
       <c r="E418" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.45">
@@ -10967,7 +10964,7 @@
         <v>1103</v>
       </c>
       <c r="E419" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.45">
@@ -10984,7 +10981,7 @@
         <v>1102</v>
       </c>
       <c r="E420" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.45">
@@ -11001,7 +10998,7 @@
         <v>1102</v>
       </c>
       <c r="E421" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.45">
@@ -11018,7 +11015,7 @@
         <v>1102</v>
       </c>
       <c r="E422" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.45">
@@ -11035,7 +11032,7 @@
         <v>1103</v>
       </c>
       <c r="E423" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.45">
@@ -11052,7 +11049,7 @@
         <v>1103</v>
       </c>
       <c r="E424" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.45">
@@ -11069,7 +11066,7 @@
         <v>1102</v>
       </c>
       <c r="E425" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.45">
@@ -11086,7 +11083,7 @@
         <v>1102</v>
       </c>
       <c r="E426" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.45">
@@ -11103,7 +11100,7 @@
         <v>1102</v>
       </c>
       <c r="E427" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.45">
@@ -11120,7 +11117,7 @@
         <v>1103</v>
       </c>
       <c r="E428" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.45">
@@ -11137,7 +11134,7 @@
         <v>1103</v>
       </c>
       <c r="E429" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.45">
@@ -11154,7 +11151,7 @@
         <v>1103</v>
       </c>
       <c r="E430" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.45">
@@ -11171,7 +11168,7 @@
         <v>1102</v>
       </c>
       <c r="E431" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.45">
@@ -11188,7 +11185,7 @@
         <v>1102</v>
       </c>
       <c r="E432" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.45">
@@ -11205,7 +11202,7 @@
         <v>1102</v>
       </c>
       <c r="E433" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.45">
@@ -11222,7 +11219,7 @@
         <v>1103</v>
       </c>
       <c r="E434" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.45">
@@ -11239,7 +11236,7 @@
         <v>1103</v>
       </c>
       <c r="E435" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.45">
@@ -11256,7 +11253,7 @@
         <v>1103</v>
       </c>
       <c r="E436" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.45">
@@ -11273,7 +11270,7 @@
         <v>1103</v>
       </c>
       <c r="E437" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.45">
@@ -11290,7 +11287,7 @@
         <v>1103</v>
       </c>
       <c r="E438" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.45">
@@ -11307,7 +11304,7 @@
         <v>1103</v>
       </c>
       <c r="E439" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.45">
@@ -11324,7 +11321,7 @@
         <v>1103</v>
       </c>
       <c r="E440" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.45">
@@ -11341,7 +11338,7 @@
         <v>1103</v>
       </c>
       <c r="E441" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.45">
@@ -11358,7 +11355,7 @@
         <v>1103</v>
       </c>
       <c r="E442" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.45">
@@ -11375,7 +11372,7 @@
         <v>1103</v>
       </c>
       <c r="E443" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.45">
@@ -11392,7 +11389,7 @@
         <v>1103</v>
       </c>
       <c r="E444" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.45">
@@ -11409,7 +11406,7 @@
         <v>1103</v>
       </c>
       <c r="E445" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.45">
@@ -11426,7 +11423,7 @@
         <v>1103</v>
       </c>
       <c r="E446" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.45">
@@ -11443,7 +11440,7 @@
         <v>1102</v>
       </c>
       <c r="E447" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.45">
@@ -11460,7 +11457,7 @@
         <v>1102</v>
       </c>
       <c r="E448" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.45">
@@ -11477,7 +11474,7 @@
         <v>1102</v>
       </c>
       <c r="E449" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.45">
@@ -11494,7 +11491,7 @@
         <v>1102</v>
       </c>
       <c r="E450" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.45">
@@ -11511,7 +11508,7 @@
         <v>1102</v>
       </c>
       <c r="E451" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.45">
@@ -11528,7 +11525,7 @@
         <v>1102</v>
       </c>
       <c r="E452" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.45">
@@ -11545,7 +11542,7 @@
         <v>1102</v>
       </c>
       <c r="E453" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.45">
@@ -11562,7 +11559,7 @@
         <v>1102</v>
       </c>
       <c r="E454" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.45">
@@ -11579,7 +11576,7 @@
         <v>1102</v>
       </c>
       <c r="E455" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.45">
@@ -11596,7 +11593,7 @@
         <v>1102</v>
       </c>
       <c r="E456" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.45">
@@ -11613,7 +11610,7 @@
         <v>1103</v>
       </c>
       <c r="E457" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.45">
@@ -11630,7 +11627,7 @@
         <v>1103</v>
       </c>
       <c r="E458" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.45">
@@ -11647,7 +11644,7 @@
         <v>1102</v>
       </c>
       <c r="E459" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.45">
@@ -11664,7 +11661,7 @@
         <v>1102</v>
       </c>
       <c r="E460" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.45">
@@ -11681,7 +11678,7 @@
         <v>1102</v>
       </c>
       <c r="E461" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.45">
@@ -11698,7 +11695,7 @@
         <v>1102</v>
       </c>
       <c r="E462" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.45">
@@ -11715,7 +11712,7 @@
         <v>1103</v>
       </c>
       <c r="E463" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.45">
@@ -11732,7 +11729,7 @@
         <v>1103</v>
       </c>
       <c r="E464" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.45">
@@ -11749,7 +11746,7 @@
         <v>1103</v>
       </c>
       <c r="E465" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.45">
@@ -11766,7 +11763,7 @@
         <v>1103</v>
       </c>
       <c r="E466" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.45">
@@ -11783,7 +11780,7 @@
         <v>1102</v>
       </c>
       <c r="E467" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.45">
@@ -11800,7 +11797,7 @@
         <v>1102</v>
       </c>
       <c r="E468" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.45">
@@ -11817,7 +11814,7 @@
         <v>1103</v>
       </c>
       <c r="E469" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.45">
@@ -11834,7 +11831,7 @@
         <v>1103</v>
       </c>
       <c r="E470" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.45">
@@ -11842,7 +11839,7 @@
         <v>572</v>
       </c>
       <c r="B471" s="9" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C471" s="6" t="s">
         <v>530</v>
@@ -11851,7 +11848,7 @@
         <v>1103</v>
       </c>
       <c r="E471" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.45">
@@ -11868,7 +11865,7 @@
         <v>1103</v>
       </c>
       <c r="E472" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.45">
@@ -11876,7 +11873,7 @@
         <v>478</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>479</v>
@@ -11885,7 +11882,7 @@
         <v>1103</v>
       </c>
       <c r="E473" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.45">
@@ -11902,7 +11899,7 @@
         <v>1103</v>
       </c>
       <c r="E474" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.45">
@@ -11919,7 +11916,7 @@
         <v>1103</v>
       </c>
       <c r="E475" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.45">
@@ -11936,7 +11933,7 @@
         <v>1103</v>
       </c>
       <c r="E476" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.45">
@@ -11953,7 +11950,7 @@
         <v>1102</v>
       </c>
       <c r="E477" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.45">
@@ -11970,7 +11967,7 @@
         <v>1102</v>
       </c>
       <c r="E478" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.45">
@@ -11987,7 +11984,7 @@
         <v>1102</v>
       </c>
       <c r="E479" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.45">
@@ -12004,7 +12001,7 @@
         <v>1102</v>
       </c>
       <c r="E480" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.45">
@@ -12021,7 +12018,7 @@
         <v>1103</v>
       </c>
       <c r="E481" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.45">
@@ -12035,10 +12032,10 @@
         <v>473</v>
       </c>
       <c r="D482" s="6" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="E482" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.45">
@@ -12055,7 +12052,7 @@
         <v>1102</v>
       </c>
       <c r="E483" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.45">
@@ -12072,7 +12069,7 @@
         <v>1102</v>
       </c>
       <c r="E484" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.45">
@@ -12089,7 +12086,7 @@
         <v>1102</v>
       </c>
       <c r="E485" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.45">
@@ -12106,7 +12103,7 @@
         <v>1102</v>
       </c>
       <c r="E486" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.45">
@@ -12123,7 +12120,7 @@
         <v>1103</v>
       </c>
       <c r="E487" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.45">
@@ -12140,7 +12137,7 @@
         <v>1103</v>
       </c>
       <c r="E488" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.45">
@@ -12157,7 +12154,7 @@
         <v>1103</v>
       </c>
       <c r="E489" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.45">
@@ -12174,7 +12171,7 @@
         <v>1103</v>
       </c>
       <c r="E490" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.45">
@@ -12191,7 +12188,7 @@
         <v>1103</v>
       </c>
       <c r="E491" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.45">
@@ -12208,7 +12205,7 @@
         <v>1102</v>
       </c>
       <c r="E492" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.45">
@@ -12225,7 +12222,7 @@
         <v>1103</v>
       </c>
       <c r="E493" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.45">
@@ -12242,7 +12239,7 @@
         <v>1103</v>
       </c>
       <c r="E494" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.45">
@@ -12259,7 +12256,7 @@
         <v>1103</v>
       </c>
       <c r="E495" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.45">
@@ -12276,7 +12273,7 @@
         <v>1103</v>
       </c>
       <c r="E496" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.45">
@@ -12293,7 +12290,7 @@
         <v>1103</v>
       </c>
       <c r="E497" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.45">
@@ -12310,7 +12307,7 @@
         <v>1103</v>
       </c>
       <c r="E498" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.45">
@@ -12327,7 +12324,7 @@
         <v>1102</v>
       </c>
       <c r="E499" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.45">
@@ -12344,7 +12341,7 @@
         <v>1102</v>
       </c>
       <c r="E500" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.45">
@@ -12361,7 +12358,7 @@
         <v>1102</v>
       </c>
       <c r="E501" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.45">
@@ -12378,7 +12375,7 @@
         <v>1102</v>
       </c>
       <c r="E502" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.45">
@@ -12395,7 +12392,7 @@
         <v>1102</v>
       </c>
       <c r="E503" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.45">
@@ -12412,7 +12409,7 @@
         <v>1102</v>
       </c>
       <c r="E504" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.45">
@@ -12429,7 +12426,7 @@
         <v>1102</v>
       </c>
       <c r="E505" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.45">
@@ -12446,7 +12443,7 @@
         <v>1102</v>
       </c>
       <c r="E506" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.45">
@@ -12463,7 +12460,7 @@
         <v>1102</v>
       </c>
       <c r="E507" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.45">
@@ -12480,7 +12477,7 @@
         <v>1102</v>
       </c>
       <c r="E508" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.45">
@@ -12497,7 +12494,7 @@
         <v>1102</v>
       </c>
       <c r="E509" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.45">
@@ -12514,7 +12511,7 @@
         <v>1103</v>
       </c>
       <c r="E510" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.45">
@@ -12531,7 +12528,7 @@
         <v>1103</v>
       </c>
       <c r="E511" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.45">
@@ -12548,7 +12545,7 @@
         <v>1103</v>
       </c>
       <c r="E512" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.45">
@@ -12565,7 +12562,7 @@
         <v>1102</v>
       </c>
       <c r="E513" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.45">
@@ -12582,7 +12579,7 @@
         <v>1102</v>
       </c>
       <c r="E514" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.45">
@@ -12599,7 +12596,7 @@
         <v>1102</v>
       </c>
       <c r="E515" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.45">
@@ -12616,7 +12613,7 @@
         <v>1103</v>
       </c>
       <c r="E516" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.45">
@@ -12633,7 +12630,7 @@
         <v>1102</v>
       </c>
       <c r="E517" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.45">
@@ -12650,7 +12647,7 @@
         <v>1102</v>
       </c>
       <c r="E518" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.45">
@@ -12667,7 +12664,7 @@
         <v>1103</v>
       </c>
       <c r="E519" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.45">
@@ -12684,7 +12681,7 @@
         <v>1103</v>
       </c>
       <c r="E520" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.45">
@@ -12701,7 +12698,7 @@
         <v>1103</v>
       </c>
       <c r="E521" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.45">
@@ -12718,7 +12715,7 @@
         <v>1103</v>
       </c>
       <c r="E522" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.45">
@@ -12735,7 +12732,7 @@
         <v>1103</v>
       </c>
       <c r="E523" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.45">
@@ -12752,7 +12749,7 @@
         <v>1103</v>
       </c>
       <c r="E524" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.45">
@@ -12769,7 +12766,7 @@
         <v>1103</v>
       </c>
       <c r="E525" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.45">
@@ -12786,7 +12783,7 @@
         <v>1103</v>
       </c>
       <c r="E526" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.45">
@@ -12803,7 +12800,7 @@
         <v>1103</v>
       </c>
       <c r="E527" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.45">
@@ -12820,7 +12817,7 @@
         <v>1103</v>
       </c>
       <c r="E528" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.45">
@@ -12837,7 +12834,7 @@
         <v>1102</v>
       </c>
       <c r="E529" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.45">
@@ -12854,12 +12851,12 @@
         <v>1102</v>
       </c>
       <c r="E530" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A531" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>26</v>
@@ -12871,7 +12868,7 @@
         <v>1102</v>
       </c>
       <c r="E531" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.45">
@@ -12885,10 +12882,10 @@
         <v>515</v>
       </c>
       <c r="D532" s="6" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="E532" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.45">
@@ -12905,12 +12902,12 @@
         <v>1102</v>
       </c>
       <c r="E533" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A534" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>70</v>
@@ -12922,7 +12919,7 @@
         <v>1102</v>
       </c>
       <c r="E534" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.45">
@@ -12939,7 +12936,7 @@
         <v>1102</v>
       </c>
       <c r="E535" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.45">
@@ -12956,7 +12953,7 @@
         <v>1103</v>
       </c>
       <c r="E536" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.45">
@@ -12973,7 +12970,7 @@
         <v>1103</v>
       </c>
       <c r="E537" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.45">
@@ -12990,7 +12987,7 @@
         <v>1102</v>
       </c>
       <c r="E538" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.45">
@@ -13007,7 +13004,7 @@
         <v>1103</v>
       </c>
       <c r="E539" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.45">
@@ -13024,24 +13021,24 @@
         <v>1103</v>
       </c>
       <c r="E540" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A541" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B541" s="9" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C541" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D541" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E541" t="s">
         <v>1132</v>
-      </c>
-      <c r="D541" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E541" t="s">
-        <v>1133</v>
       </c>
     </row>
   </sheetData>
